--- a/dcd_population.xlsx
+++ b/dcd_population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mycuhk-my.sharepoint.com/personal/1155173755_link_cuhk_edu_hk/Documents/Desktop/SEEM3650/dcd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_AD4DA82427541F7ACA7EB84E6888310E6AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6E2439A-4BBF-45EE-9190-AD1DE3B00245}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4DA82427541F7ACA7EB84E6888310E6AE8DE1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F3DAA56-9201-479F-AAAD-1EA4A4E17DB5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$397</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="21">
   <si>
     <t>Year</t>
   </si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Islands</t>
-  </si>
-  <si>
-    <t>Whole Territory</t>
   </si>
 </sst>
 </file>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D419"/>
+  <dimension ref="A1:D397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D399" sqref="D399"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -632,13 +632,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>6668.9</v>
+        <v>244.6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -646,10 +646,10 @@
         <v>2002</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>244.6</v>
+        <v>156.6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -657,10 +657,10 @@
         <v>2002</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>156.6</v>
+        <v>606.6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -668,10 +668,10 @@
         <v>2002</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>606.6</v>
+        <v>275.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -679,10 +679,10 @@
         <v>2002</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>275.5</v>
+        <v>278.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -690,10 +690,10 @@
         <v>2002</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>278.5</v>
+        <v>352.2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -701,10 +701,10 @@
         <v>2002</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>352.2</v>
+        <v>362.8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -712,10 +712,10 @@
         <v>2002</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>362.8</v>
+        <v>442.8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -723,10 +723,10 @@
         <v>2002</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>442.8</v>
+        <v>565.29999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -734,10 +734,10 @@
         <v>2002</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>565.29999999999995</v>
+        <v>489.1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -745,10 +745,10 @@
         <v>2002</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>489.1</v>
+        <v>267.7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -756,10 +756,10 @@
         <v>2002</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>267.7</v>
+        <v>497.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -767,10 +767,10 @@
         <v>2002</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>497.5</v>
+        <v>497.3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -778,10 +778,10 @@
         <v>2002</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>497.3</v>
+        <v>284.8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -789,10 +789,10 @@
         <v>2002</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>284.8</v>
+        <v>302.3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -800,10 +800,10 @@
         <v>2002</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>302.3</v>
+        <v>624.1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -811,10 +811,10 @@
         <v>2002</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>624.1</v>
+        <v>353.7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -822,32 +822,32 @@
         <v>2002</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>353.7</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>94.3</v>
+        <v>235.1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>6695.8</v>
+        <v>151.1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -855,10 +855,10 @@
         <v>2003</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>235.1</v>
+        <v>591.79999999999995</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -866,10 +866,10 @@
         <v>2003</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>151.1</v>
+        <v>271.2</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -877,10 +877,10 @@
         <v>2003</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>591.79999999999995</v>
+        <v>270.89999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -888,10 +888,10 @@
         <v>2003</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>271.2</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -899,10 +899,10 @@
         <v>2003</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>270.89999999999998</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -910,10 +910,10 @@
         <v>2003</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>343.8</v>
+        <v>438.9</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -921,10 +921,10 @@
         <v>2003</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>361.4</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -932,10 +932,10 @@
         <v>2003</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>438.9</v>
+        <v>494.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -943,10 +943,10 @@
         <v>2003</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>568</v>
+        <v>270.39999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -954,10 +954,10 @@
         <v>2003</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>494.5</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -965,10 +965,10 @@
         <v>2003</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>270.39999999999998</v>
+        <v>514.6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -976,10 +976,10 @@
         <v>2003</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>501</v>
+        <v>287.8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -987,10 +987,10 @@
         <v>2003</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>514.6</v>
+        <v>296.7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -998,10 +998,10 @@
         <v>2003</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>287.8</v>
+        <v>614.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1009,10 +1009,10 @@
         <v>2003</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>296.7</v>
+        <v>365.8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1020,43 +1020,43 @@
         <v>2003</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>614.5</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>365.8</v>
+        <v>238.9</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>105.1</v>
+        <v>152.30000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>6682.6</v>
+        <v>588.79999999999995</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1064,10 +1064,10 @@
         <v>2004</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>238.9</v>
+        <v>267.8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1075,10 +1075,10 @@
         <v>2004</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>152.30000000000001</v>
+        <v>284.60000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1086,10 +1086,10 @@
         <v>2004</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>588.79999999999995</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1097,10 +1097,10 @@
         <v>2004</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>267.8</v>
+        <v>359.9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1108,10 +1108,10 @@
         <v>2004</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>284.60000000000002</v>
+        <v>432.4</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1119,10 +1119,10 @@
         <v>2004</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D64">
-        <v>349</v>
+        <v>569.1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1130,10 +1130,10 @@
         <v>2004</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>359.9</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1141,10 +1141,10 @@
         <v>2004</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>432.4</v>
+        <v>273.39999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1152,10 +1152,10 @@
         <v>2004</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D67">
-        <v>569.1</v>
+        <v>494.3</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1163,10 +1163,10 @@
         <v>2004</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>496</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1174,10 +1174,10 @@
         <v>2004</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>273.39999999999998</v>
+        <v>284.8</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1185,10 +1185,10 @@
         <v>2004</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>494.3</v>
+        <v>295.3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1196,10 +1196,10 @@
         <v>2004</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D71">
-        <v>523</v>
+        <v>607.6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1207,10 +1207,10 @@
         <v>2004</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>284.8</v>
+        <v>402.8</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1218,54 +1218,54 @@
         <v>2004</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D73">
-        <v>295.3</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>607.6</v>
+        <v>247.4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>402.8</v>
+        <v>154.6</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>116.4</v>
+        <v>584.79999999999995</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>6736.4</v>
+        <v>265.3</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1273,10 +1273,10 @@
         <v>2005</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D78">
-        <v>247.4</v>
+        <v>286.60000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1284,10 +1284,10 @@
         <v>2005</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D79">
-        <v>154.6</v>
+        <v>356.2</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1295,10 +1295,10 @@
         <v>2005</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>584.79999999999995</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1306,10 +1306,10 @@
         <v>2005</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D81">
-        <v>265.3</v>
+        <v>423.7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1317,10 +1317,10 @@
         <v>2005</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>286.60000000000002</v>
+        <v>583.29999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1328,10 +1328,10 @@
         <v>2005</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D83">
-        <v>356.2</v>
+        <v>504.8</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1339,10 +1339,10 @@
         <v>2005</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84">
-        <v>364</v>
+        <v>277.39999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1350,10 +1350,10 @@
         <v>2005</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D85">
-        <v>423.7</v>
+        <v>493.8</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1361,10 +1361,10 @@
         <v>2005</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>583.29999999999995</v>
+        <v>532.4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1372,10 +1372,10 @@
         <v>2005</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D87">
-        <v>504.8</v>
+        <v>277.5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1383,10 +1383,10 @@
         <v>2005</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88">
-        <v>277.39999999999998</v>
+        <v>290.2</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1394,10 +1394,10 @@
         <v>2005</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>493.8</v>
+        <v>597.20000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1405,10 +1405,10 @@
         <v>2005</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D90">
-        <v>532.4</v>
+        <v>400.8</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1416,65 +1416,65 @@
         <v>2005</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>277.5</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D92">
-        <v>290.2</v>
+        <v>247.4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>597.20000000000005</v>
+        <v>152.9</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D94">
-        <v>400.8</v>
+        <v>584.29999999999995</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>127.5</v>
+        <v>268.3</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D96">
-        <v>6767.6</v>
+        <v>277.2</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1482,10 +1482,10 @@
         <v>2006</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D97">
-        <v>247.4</v>
+        <v>360.8</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1493,10 +1493,10 @@
         <v>2006</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D98">
-        <v>152.9</v>
+        <v>357.2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1504,10 +1504,10 @@
         <v>2006</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D99">
-        <v>584.29999999999995</v>
+        <v>421.2</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1515,10 +1515,10 @@
         <v>2006</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>268.3</v>
+        <v>581.4</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1526,10 +1526,10 @@
         <v>2006</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D101">
-        <v>277.2</v>
+        <v>509.2</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1537,10 +1537,10 @@
         <v>2006</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D102">
-        <v>360.8</v>
+        <v>284.5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1548,10 +1548,10 @@
         <v>2006</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D103">
-        <v>357.2</v>
+        <v>491</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1559,10 +1559,10 @@
         <v>2006</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D104">
-        <v>421.2</v>
+        <v>529.29999999999995</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1570,10 +1570,10 @@
         <v>2006</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D105">
-        <v>581.4</v>
+        <v>276.89999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1581,10 +1581,10 @@
         <v>2006</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D106">
-        <v>509.2</v>
+        <v>289.39999999999998</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1592,10 +1592,10 @@
         <v>2006</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D107">
-        <v>284.5</v>
+        <v>603</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1603,10 +1603,10 @@
         <v>2006</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D108">
-        <v>491</v>
+        <v>402.1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1614,76 +1614,76 @@
         <v>2006</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D109">
-        <v>529.29999999999995</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>276.89999999999998</v>
+        <v>252.4</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>289.39999999999998</v>
+        <v>155.30000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D112">
-        <v>603</v>
+        <v>588.29999999999995</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D113">
-        <v>402.1</v>
+        <v>273.8</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D114">
-        <v>132.6</v>
+        <v>284.89999999999998</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D115">
-        <v>6768.7</v>
+        <v>364.8</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1691,10 +1691,10 @@
         <v>2007</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D116">
-        <v>252.4</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1702,10 +1702,10 @@
         <v>2007</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D117">
-        <v>155.30000000000001</v>
+        <v>420.9</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -1713,10 +1713,10 @@
         <v>2007</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D118">
-        <v>588.29999999999995</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -1724,10 +1724,10 @@
         <v>2007</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D119">
-        <v>273.8</v>
+        <v>509.1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -1735,10 +1735,10 @@
         <v>2007</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D120">
-        <v>284.89999999999998</v>
+        <v>291.7</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -1746,10 +1746,10 @@
         <v>2007</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D121">
-        <v>364.8</v>
+        <v>489.8</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -1757,10 +1757,10 @@
         <v>2007</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D122">
-        <v>359.1</v>
+        <v>532.79999999999995</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -1768,10 +1768,10 @@
         <v>2007</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D123">
-        <v>420.9</v>
+        <v>287.39999999999998</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -1779,10 +1779,10 @@
         <v>2007</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D124">
-        <v>579</v>
+        <v>292.39999999999998</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -1790,10 +1790,10 @@
         <v>2007</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D125">
-        <v>509.1</v>
+        <v>606</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -1801,10 +1801,10 @@
         <v>2007</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D126">
-        <v>291.7</v>
+        <v>406.9</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -1812,87 +1812,87 @@
         <v>2007</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D127">
-        <v>489.8</v>
+        <v>138.30000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>532.79999999999995</v>
+        <v>260.3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>287.39999999999998</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D130">
-        <v>292.39999999999998</v>
+        <v>592.1</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D131">
-        <v>606</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D132">
-        <v>406.9</v>
+        <v>292.89999999999998</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D133">
-        <v>138.30000000000001</v>
+        <v>360.3</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D134">
-        <v>6832.9</v>
+        <v>356.5</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -1900,10 +1900,10 @@
         <v>2008</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D135">
-        <v>260.3</v>
+        <v>417.7</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -1911,10 +1911,10 @@
         <v>2008</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D136">
-        <v>159.6</v>
+        <v>575.79999999999995</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -1922,10 +1922,10 @@
         <v>2008</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D137">
-        <v>592.1</v>
+        <v>509.3</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -1933,10 +1933,10 @@
         <v>2008</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D138">
-        <v>273</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -1944,10 +1944,10 @@
         <v>2008</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D139">
-        <v>292.89999999999998</v>
+        <v>492.2</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -1955,10 +1955,10 @@
         <v>2008</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D140">
-        <v>360.3</v>
+        <v>537</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -1966,10 +1966,10 @@
         <v>2008</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D141">
-        <v>356.5</v>
+        <v>295.3</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -1977,10 +1977,10 @@
         <v>2008</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D142">
-        <v>417.7</v>
+        <v>288.39999999999998</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -1988,10 +1988,10 @@
         <v>2008</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D143">
-        <v>575.79999999999995</v>
+        <v>607</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -1999,10 +1999,10 @@
         <v>2008</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D144">
-        <v>509.3</v>
+        <v>413</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2010,98 +2010,98 @@
         <v>2008</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D145">
-        <v>293.3</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>492.2</v>
+        <v>255.5</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D147">
-        <v>537</v>
+        <v>158.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D148">
-        <v>295.3</v>
+        <v>586.20000000000005</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D149">
-        <v>288.39999999999998</v>
+        <v>270.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B150" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D150">
-        <v>607</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D151">
-        <v>413</v>
+        <v>364.2</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D152">
-        <v>147.5</v>
+        <v>362.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B153" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D153">
-        <v>6871.1</v>
+        <v>414.3</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2109,10 +2109,10 @@
         <v>2009</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D154">
-        <v>255.5</v>
+        <v>591.4</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2120,10 +2120,10 @@
         <v>2009</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D155">
-        <v>158.5</v>
+        <v>506.4</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2131,10 +2131,10 @@
         <v>2009</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D156">
-        <v>586.20000000000005</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2142,10 +2142,10 @@
         <v>2009</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D157">
-        <v>270.5</v>
+        <v>486.3</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2153,10 +2153,10 @@
         <v>2009</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D158">
-        <v>297.5</v>
+        <v>542.79999999999995</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2164,10 +2164,10 @@
         <v>2009</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D159">
-        <v>364.2</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2175,10 +2175,10 @@
         <v>2009</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160">
-        <v>362.5</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2186,10 +2186,10 @@
         <v>2009</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D161">
-        <v>414.3</v>
+        <v>606.79999999999995</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2197,10 +2197,10 @@
         <v>2009</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D162">
-        <v>591.4</v>
+        <v>415.7</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2208,109 +2208,109 @@
         <v>2009</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D163">
-        <v>506.4</v>
+        <v>146.19999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>291.5</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D165">
-        <v>486.3</v>
+        <v>158.1</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D166">
-        <v>542.79999999999995</v>
+        <v>585.4</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D167">
-        <v>300.2</v>
+        <v>270.60000000000002</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D168">
-        <v>288</v>
+        <v>302.8</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B169" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D169">
-        <v>606.79999999999995</v>
+        <v>364.2</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B170" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D170">
-        <v>415.7</v>
+        <v>364.2</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B171" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D171">
-        <v>146.19999999999999</v>
+        <v>414.7</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B172" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D172">
-        <v>6884.5</v>
+        <v>606.20000000000005</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2318,10 +2318,10 @@
         <v>2010</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D173">
-        <v>257</v>
+        <v>504.5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2329,10 +2329,10 @@
         <v>2010</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D174">
-        <v>158.1</v>
+        <v>290.3</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2340,10 +2340,10 @@
         <v>2010</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D175">
-        <v>585.4</v>
+        <v>485.6</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2351,10 +2351,10 @@
         <v>2010</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D176">
-        <v>270.60000000000002</v>
+        <v>552.5</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2362,10 +2362,10 @@
         <v>2010</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D177">
-        <v>302.8</v>
+        <v>303.8</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2373,10 +2373,10 @@
         <v>2010</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D178">
-        <v>364.2</v>
+        <v>289.89999999999998</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2384,10 +2384,10 @@
         <v>2010</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D179">
-        <v>364.2</v>
+        <v>616.6</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2395,10 +2395,10 @@
         <v>2010</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D180">
-        <v>414.7</v>
+        <v>421.4</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2406,120 +2406,120 @@
         <v>2010</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D181">
-        <v>606.20000000000005</v>
+        <v>148.6</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D182">
-        <v>504.5</v>
+        <v>248.8</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D183">
-        <v>290.3</v>
+        <v>150.9</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D184">
-        <v>485.6</v>
+        <v>583</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D185">
-        <v>552.5</v>
+        <v>271.2</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B186" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D186">
-        <v>303.8</v>
+        <v>305.2</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D187">
-        <v>289.89999999999998</v>
+        <v>374.7</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B188" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D188">
-        <v>616.6</v>
+        <v>371.9</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B189" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D189">
-        <v>421.4</v>
+        <v>415.8</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D190">
-        <v>148.6</v>
+        <v>616.9</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D191">
-        <v>6936.2</v>
+        <v>503.2</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -2527,10 +2527,10 @@
         <v>2011</v>
       </c>
       <c r="B192" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D192">
-        <v>248.8</v>
+        <v>301.3</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -2538,10 +2538,10 @@
         <v>2011</v>
       </c>
       <c r="B193" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D193">
-        <v>150.9</v>
+        <v>479.3</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -2549,10 +2549,10 @@
         <v>2011</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D194">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -2560,10 +2560,10 @@
         <v>2011</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D195">
-        <v>271.2</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -2571,10 +2571,10 @@
         <v>2011</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D196">
-        <v>305.2</v>
+        <v>293.39999999999998</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -2582,10 +2582,10 @@
         <v>2011</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D197">
-        <v>374.7</v>
+        <v>625.9</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -2593,10 +2593,10 @@
         <v>2011</v>
       </c>
       <c r="B198" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D198">
-        <v>371.9</v>
+        <v>433.4</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -2604,131 +2604,131 @@
         <v>2011</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D199">
-        <v>415.8</v>
+        <v>138.1</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D200">
-        <v>616.9</v>
+        <v>250.6</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D201">
-        <v>503.2</v>
+        <v>152.6</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D202">
-        <v>301.3</v>
+        <v>582.79999999999995</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D203">
-        <v>479.3</v>
+        <v>272.7</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B204" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D204">
-        <v>573</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D205">
-        <v>300</v>
+        <v>382.4</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D206">
-        <v>293.39999999999998</v>
+        <v>376.9</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B207" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D207">
-        <v>625.9</v>
+        <v>421.7</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B208" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D208">
-        <v>433.4</v>
+        <v>627.79999999999995</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B209" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D209">
-        <v>138.1</v>
+        <v>501.6</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B210" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D210">
-        <v>6986.2</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -2736,10 +2736,10 @@
         <v>2012</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D211">
-        <v>250.6</v>
+        <v>483.1</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -2747,10 +2747,10 @@
         <v>2012</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D212">
-        <v>152.6</v>
+        <v>583.29999999999995</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -2758,10 +2758,10 @@
         <v>2012</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D213">
-        <v>582.79999999999995</v>
+        <v>302.60000000000002</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -2769,10 +2769,10 @@
         <v>2012</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D214">
-        <v>272.7</v>
+        <v>297</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -2780,10 +2780,10 @@
         <v>2012</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D215">
-        <v>312.2</v>
+        <v>634.1</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -2791,10 +2791,10 @@
         <v>2012</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D216">
-        <v>382.4</v>
+        <v>438.2</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -2802,142 +2802,142 @@
         <v>2012</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D217">
-        <v>376.9</v>
+        <v>142.19999999999999</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D218">
-        <v>421.7</v>
+        <v>249.7</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D219">
-        <v>627.79999999999995</v>
+        <v>151.30000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D220">
-        <v>501.6</v>
+        <v>580.70000000000005</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D221">
-        <v>301.7</v>
+        <v>271.60000000000002</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D222">
-        <v>483.1</v>
+        <v>311.89999999999998</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D223">
-        <v>583.29999999999995</v>
+        <v>381.5</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D224">
-        <v>302.60000000000002</v>
+        <v>376.9</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D225">
-        <v>297</v>
+        <v>423.7</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B226" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D226">
-        <v>634.1</v>
+        <v>638.29999999999995</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B227" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D227">
-        <v>438.2</v>
+        <v>500.8</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B228" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D228">
-        <v>142.19999999999999</v>
+        <v>301.2</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B229" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D229">
-        <v>7063.1</v>
+        <v>486.5</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -2945,10 +2945,10 @@
         <v>2013</v>
       </c>
       <c r="B230" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D230">
-        <v>249.7</v>
+        <v>588.1</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -2956,10 +2956,10 @@
         <v>2013</v>
       </c>
       <c r="B231" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D231">
-        <v>151.30000000000001</v>
+        <v>303.3</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -2967,10 +2967,10 @@
         <v>2013</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D232">
-        <v>580.70000000000005</v>
+        <v>299</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -2978,10 +2978,10 @@
         <v>2013</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D233">
-        <v>271.60000000000002</v>
+        <v>643.1</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -2989,10 +2989,10 @@
         <v>2013</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D234">
-        <v>311.89999999999998</v>
+        <v>441.1</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3000,153 +3000,153 @@
         <v>2013</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D235">
-        <v>381.5</v>
+        <v>143.80000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D236">
-        <v>376.9</v>
+        <v>248.2</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D237">
-        <v>423.7</v>
+        <v>150.30000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D238">
-        <v>638.29999999999995</v>
+        <v>576.20000000000005</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D239">
-        <v>500.8</v>
+        <v>269.8</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D240">
-        <v>301.2</v>
+        <v>313.89999999999998</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D241">
-        <v>486.5</v>
+        <v>386.7</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D242">
-        <v>588.1</v>
+        <v>401.6</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D243">
-        <v>303.3</v>
+        <v>424.1</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B244" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D244">
-        <v>299</v>
+        <v>639.20000000000005</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B245" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D245">
-        <v>643.1</v>
+        <v>501.5</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B246" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D246">
-        <v>441.1</v>
+        <v>300.39999999999998</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B247" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D247">
-        <v>143.80000000000001</v>
+        <v>489</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B248" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D248">
-        <v>7092.5</v>
+        <v>595.5</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3154,10 +3154,10 @@
         <v>2014</v>
       </c>
       <c r="B249" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D249">
-        <v>248.2</v>
+        <v>303.5</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3165,10 +3165,10 @@
         <v>2014</v>
       </c>
       <c r="B250" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D250">
-        <v>150.30000000000001</v>
+        <v>301.2</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3176,10 +3176,10 @@
         <v>2014</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D251">
-        <v>576.20000000000005</v>
+        <v>647.4</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3187,10 +3187,10 @@
         <v>2014</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D252">
-        <v>269.8</v>
+        <v>449</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3198,164 +3198,164 @@
         <v>2014</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D253">
-        <v>313.89999999999998</v>
+        <v>144.69999999999999</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D254">
-        <v>386.7</v>
+        <v>246.3</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D255">
-        <v>401.6</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B256" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D256">
-        <v>424.1</v>
+        <v>570.6</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B257" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D257">
-        <v>639.20000000000005</v>
+        <v>268.39999999999998</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D258">
-        <v>501.5</v>
+        <v>318.7</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B259" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D259">
-        <v>300.39999999999998</v>
+        <v>388.7</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D260">
-        <v>489</v>
+        <v>404.9</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B261" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D261">
-        <v>595.5</v>
+        <v>426</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B262" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D262">
-        <v>303.5</v>
+        <v>640.5</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B263" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D263">
-        <v>301.2</v>
+        <v>506.6</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B264" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D264">
-        <v>647.4</v>
+        <v>302</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B265" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D265">
-        <v>449</v>
+        <v>495.9</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B266" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D266">
-        <v>144.69999999999999</v>
+        <v>607.6</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B267" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D267">
-        <v>7142</v>
+        <v>310.89999999999998</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -3363,10 +3363,10 @@
         <v>2015</v>
       </c>
       <c r="B268" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D268">
-        <v>246.3</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -3374,10 +3374,10 @@
         <v>2015</v>
       </c>
       <c r="B269" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D269">
-        <v>151.19999999999999</v>
+        <v>659.3</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -3385,10 +3385,10 @@
         <v>2015</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D270">
-        <v>570.6</v>
+        <v>458</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -3396,175 +3396,175 @@
         <v>2015</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D271">
-        <v>268.39999999999998</v>
+        <v>147.4</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B272" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D272">
-        <v>318.7</v>
+        <v>240.6</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B273" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D273">
-        <v>388.7</v>
+        <v>177.7</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B274" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D274">
-        <v>404.9</v>
+        <v>550.79999999999995</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D275">
-        <v>426</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B276" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D276">
-        <v>640.5</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B277" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D277">
-        <v>506.6</v>
+        <v>398.8</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D278">
-        <v>302</v>
+        <v>413.8</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B279" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D279">
-        <v>495.9</v>
+        <v>421.3</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D280">
-        <v>607.6</v>
+        <v>643.6</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B281" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D281">
-        <v>310.89999999999998</v>
+        <v>510.7</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B282" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D282">
-        <v>305.7</v>
+        <v>314.60000000000002</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B283" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D283">
-        <v>659.3</v>
+        <v>481.2</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B284" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D284">
-        <v>458</v>
+        <v>610.9</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B285" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D285">
-        <v>147.4</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B286" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D286">
-        <v>7208.7</v>
+        <v>300.10000000000002</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -3572,10 +3572,10 @@
         <v>2016</v>
       </c>
       <c r="B287" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D287">
-        <v>240.6</v>
+        <v>657.2</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -3583,10 +3583,10 @@
         <v>2016</v>
       </c>
       <c r="B288" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D288">
-        <v>177.7</v>
+        <v>459.1</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -3594,186 +3594,186 @@
         <v>2016</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D289">
-        <v>550.79999999999995</v>
+        <v>154.5</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D290">
-        <v>264.8</v>
+        <v>241.6</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D291">
-        <v>339.4</v>
+        <v>179.6</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D292">
-        <v>398.8</v>
+        <v>547.1</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D293">
-        <v>413.8</v>
+        <v>264.10000000000002</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D294">
-        <v>421.3</v>
+        <v>334</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B295" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D295">
-        <v>643.6</v>
+        <v>401</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B296" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D296">
-        <v>510.7</v>
+        <v>412</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B297" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D297">
-        <v>314.60000000000002</v>
+        <v>420.9</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B298" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D298">
-        <v>481.2</v>
+        <v>664.2</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D299">
-        <v>610.9</v>
+        <v>508.1</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B300" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D300">
-        <v>310.7</v>
+        <v>313.7</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D301">
-        <v>300.10000000000002</v>
+        <v>480.7</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B302" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D302">
-        <v>657.2</v>
+        <v>624.70000000000005</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B303" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D303">
-        <v>459.1</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B304" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D304">
-        <v>154.5</v>
+        <v>304.10000000000002</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B305" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D305">
-        <v>7249.8</v>
+        <v>677.2</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -3781,10 +3781,10 @@
         <v>2017</v>
       </c>
       <c r="B306" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D306">
-        <v>241.6</v>
+        <v>463.8</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -3792,197 +3792,197 @@
         <v>2017</v>
       </c>
       <c r="B307" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D307">
-        <v>179.6</v>
+        <v>160</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B308" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D308">
-        <v>547.1</v>
+        <v>242.5</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B309" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D309">
-        <v>264.10000000000002</v>
+        <v>180.4</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B310" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D310">
-        <v>334</v>
+        <v>547.20000000000005</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B311" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D311">
-        <v>401</v>
+        <v>266.3</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B312" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D312">
-        <v>412</v>
+        <v>331.9</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D313">
-        <v>420.9</v>
+        <v>397.8</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D314">
-        <v>664.2</v>
+        <v>414.6</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B315" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D315">
-        <v>508.1</v>
+        <v>419.8</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B316" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D316">
-        <v>313.7</v>
+        <v>677.7</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D317">
-        <v>480.7</v>
+        <v>507.5</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B318" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D318">
-        <v>624.70000000000005</v>
+        <v>311.2</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B319" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D319">
-        <v>312.8</v>
+        <v>494.3</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D320">
-        <v>304.10000000000002</v>
+        <v>635</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B321" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D321">
-        <v>677.2</v>
+        <v>315</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B322" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D322">
-        <v>463.8</v>
+        <v>308</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B323" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D323">
-        <v>160</v>
+        <v>680.5</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B324" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D324">
-        <v>7309.6</v>
+        <v>469.1</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -3990,1044 +3990,802 @@
         <v>2018</v>
       </c>
       <c r="B325" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D325">
-        <v>242.5</v>
+        <v>170.4</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B326" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D326">
-        <v>180.4</v>
+        <v>240.6</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B327" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D327">
-        <v>547.20000000000005</v>
+        <v>178.7</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B328" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D328">
-        <v>266.3</v>
+        <v>546.5</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B329" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D329">
-        <v>331.9</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B330" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D330">
-        <v>397.8</v>
+        <v>329.4</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D331">
-        <v>414.6</v>
+        <v>417.6</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D332">
-        <v>419.8</v>
+        <v>420.2</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B333" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D333">
-        <v>677.7</v>
+        <v>417.1</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B334" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D334">
-        <v>507.5</v>
+        <v>689.2</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B335" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D335">
-        <v>311.2</v>
+        <v>503.1</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B336" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D336">
-        <v>494.3</v>
+        <v>311.7</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B337" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D337">
-        <v>635</v>
+        <v>494.5</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B338" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D338">
-        <v>315</v>
+        <v>643.9</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B339" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D339">
-        <v>308</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B340" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D340">
-        <v>680.5</v>
+        <v>307</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B341" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D341">
-        <v>469.1</v>
+        <v>687.3</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B342" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D342">
-        <v>170.4</v>
+        <v>472.2</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B343" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D343">
-        <v>7369.2</v>
+        <v>185.8</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B344" t="s">
         <v>3</v>
       </c>
       <c r="D344">
-        <v>240.6</v>
+        <v>236</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B345" t="s">
         <v>4</v>
       </c>
       <c r="D345">
-        <v>178.7</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
       </c>
       <c r="D346">
-        <v>546.5</v>
+        <v>538.6</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B347" t="s">
         <v>6</v>
       </c>
       <c r="D347">
-        <v>264.8</v>
+        <v>261</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
       </c>
       <c r="D348">
-        <v>329.4</v>
+        <v>322.3</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B349" t="s">
         <v>8</v>
       </c>
       <c r="D349">
-        <v>417.6</v>
+        <v>434.1</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B350" t="s">
         <v>9</v>
       </c>
       <c r="D350">
-        <v>420.2</v>
+        <v>419.2</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B351" t="s">
         <v>10</v>
       </c>
       <c r="D351">
-        <v>417.1</v>
+        <v>414.8</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B352" t="s">
         <v>11</v>
       </c>
       <c r="D352">
-        <v>689.2</v>
+        <v>687</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B353" t="s">
         <v>12</v>
       </c>
       <c r="D353">
-        <v>503.1</v>
+        <v>501.1</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B354" t="s">
         <v>13</v>
       </c>
       <c r="D354">
-        <v>311.7</v>
+        <v>310</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B355" t="s">
         <v>14</v>
       </c>
       <c r="D355">
-        <v>494.5</v>
+        <v>494.8</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B356" t="s">
         <v>15</v>
       </c>
       <c r="D356">
-        <v>643.9</v>
+        <v>639.9</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B357" t="s">
         <v>16</v>
       </c>
       <c r="D357">
-        <v>314.2</v>
+        <v>314.5</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B358" t="s">
         <v>17</v>
       </c>
       <c r="D358">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B359" t="s">
         <v>18</v>
       </c>
       <c r="D359">
-        <v>687.3</v>
+        <v>684.5</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B360" t="s">
         <v>19</v>
       </c>
       <c r="D360">
-        <v>472.2</v>
+        <v>472.7</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B361" t="s">
         <v>20</v>
       </c>
       <c r="D361">
-        <v>185.8</v>
+        <v>184.3</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B362" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D362">
-        <v>7423.8</v>
+        <v>233.4</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B363" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D363">
-        <v>236</v>
+        <v>165.1</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B364" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D364">
-        <v>173.5</v>
+        <v>525.1</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B365" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D365">
-        <v>538.6</v>
+        <v>256.10000000000002</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B366" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D366">
-        <v>261</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B367" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D367">
-        <v>322.3</v>
+        <v>424</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B368" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D368">
-        <v>434.1</v>
+        <v>404.2</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B369" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D369">
-        <v>419.2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B370" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D370">
-        <v>414.8</v>
+        <v>667.4</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B371" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D371">
-        <v>687</v>
+        <v>487.2</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B372" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D372">
-        <v>501.1</v>
+        <v>316.39999999999998</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B373" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D373">
-        <v>310</v>
+        <v>498.4</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B374" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D374">
-        <v>494.8</v>
+        <v>662</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B375" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D375">
-        <v>639.9</v>
+        <v>305.10000000000002</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B376" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D376">
-        <v>314.5</v>
+        <v>313</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B377" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D377">
-        <v>308</v>
+        <v>688.2</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B378" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D378">
-        <v>684.5</v>
+        <v>486.2</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B379" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D379">
-        <v>472.7</v>
+        <v>183</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B380" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D380">
-        <v>184.3</v>
+        <v>220.8</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B381" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D381">
-        <v>7396.4</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B382" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D382">
-        <v>233.4</v>
+        <v>513.6</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B383" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D383">
-        <v>165.1</v>
+        <v>249.9</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B384" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D384">
-        <v>525.1</v>
+        <v>292.2</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B385" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D385">
-        <v>256.10000000000002</v>
+        <v>425.3</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B386" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D386">
-        <v>306.8</v>
+        <v>397.3</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B387" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D387">
-        <v>424</v>
+        <v>400.7</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B388" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D388">
-        <v>404.2</v>
+        <v>663.6</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B389" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D389">
-        <v>403</v>
+        <v>482.4</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B390" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D390">
-        <v>667.4</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B391" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D391">
-        <v>487.2</v>
+        <v>500.5</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B392" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D392">
-        <v>316.39999999999998</v>
+        <v>652.5</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B393" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D393">
-        <v>498.4</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B394" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D394">
-        <v>662</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B395" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D395">
-        <v>305.10000000000002</v>
+        <v>684.3</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B396" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D396">
-        <v>313</v>
+        <v>489.8</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B397" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D397">
-        <v>688.2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4">
-      <c r="A398">
-        <v>2021</v>
-      </c>
-      <c r="B398" t="s">
-        <v>19</v>
-      </c>
-      <c r="D398">
-        <v>486.2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4">
-      <c r="A399">
-        <v>2021</v>
-      </c>
-      <c r="B399" t="s">
-        <v>20</v>
-      </c>
-      <c r="D399">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4">
-      <c r="A400">
-        <v>2021</v>
-      </c>
-      <c r="B400" t="s">
-        <v>21</v>
-      </c>
-      <c r="D400">
-        <v>7324.6</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4">
-      <c r="A401">
-        <v>2022</v>
-      </c>
-      <c r="B401" t="s">
-        <v>3</v>
-      </c>
-      <c r="D401">
-        <v>220.8</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4">
-      <c r="A402">
-        <v>2022</v>
-      </c>
-      <c r="B402" t="s">
-        <v>4</v>
-      </c>
-      <c r="D402">
-        <v>156.5</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
-      <c r="A403">
-        <v>2022</v>
-      </c>
-      <c r="B403" t="s">
-        <v>5</v>
-      </c>
-      <c r="D403">
-        <v>513.6</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4">
-      <c r="A404">
-        <v>2022</v>
-      </c>
-      <c r="B404" t="s">
-        <v>6</v>
-      </c>
-      <c r="D404">
-        <v>249.9</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
-      <c r="A405">
-        <v>2022</v>
-      </c>
-      <c r="B405" t="s">
-        <v>7</v>
-      </c>
-      <c r="D405">
-        <v>292.2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
-      <c r="A406">
-        <v>2022</v>
-      </c>
-      <c r="B406" t="s">
-        <v>8</v>
-      </c>
-      <c r="D406">
-        <v>425.3</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="A407">
-        <v>2022</v>
-      </c>
-      <c r="B407" t="s">
-        <v>9</v>
-      </c>
-      <c r="D407">
-        <v>397.3</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="A408">
-        <v>2022</v>
-      </c>
-      <c r="B408" t="s">
-        <v>10</v>
-      </c>
-      <c r="D408">
-        <v>400.7</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
-      <c r="A409">
-        <v>2022</v>
-      </c>
-      <c r="B409" t="s">
-        <v>11</v>
-      </c>
-      <c r="D409">
-        <v>663.6</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="A410">
-        <v>2022</v>
-      </c>
-      <c r="B410" t="s">
-        <v>12</v>
-      </c>
-      <c r="D410">
-        <v>482.4</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="A411">
-        <v>2022</v>
-      </c>
-      <c r="B411" t="s">
-        <v>13</v>
-      </c>
-      <c r="D411">
-        <v>307.8</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4">
-      <c r="A412">
-        <v>2022</v>
-      </c>
-      <c r="B412" t="s">
-        <v>14</v>
-      </c>
-      <c r="D412">
-        <v>500.5</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
-      <c r="A413">
-        <v>2022</v>
-      </c>
-      <c r="B413" t="s">
-        <v>15</v>
-      </c>
-      <c r="D413">
-        <v>652.5</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="A414">
-        <v>2022</v>
-      </c>
-      <c r="B414" t="s">
-        <v>16</v>
-      </c>
-      <c r="D414">
-        <v>331.2</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="A415">
-        <v>2022</v>
-      </c>
-      <c r="B415" t="s">
-        <v>17</v>
-      </c>
-      <c r="D415">
-        <v>311.3</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="A416">
-        <v>2022</v>
-      </c>
-      <c r="B416" t="s">
-        <v>18</v>
-      </c>
-      <c r="D416">
-        <v>684.3</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417">
-        <v>2022</v>
-      </c>
-      <c r="B417" t="s">
-        <v>19</v>
-      </c>
-      <c r="D417">
-        <v>489.8</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="A418">
-        <v>2022</v>
-      </c>
-      <c r="B418" t="s">
-        <v>20</v>
-      </c>
-      <c r="D418">
         <v>180.1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="A419">
-        <v>2022</v>
-      </c>
-      <c r="B419" t="s">
-        <v>21</v>
-      </c>
-      <c r="D419">
-        <v>7259.7</v>
       </c>
     </row>
   </sheetData>
